--- a/robarm_documents/partslist.xlsx
+++ b/robarm_documents/partslist.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\prj\temp\RobArm\robarm_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E985ED9-C778-4017-A145-A857161656EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56344B3-84AF-486D-9E3A-FB8A2E09B084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{0F35D6AC-EAA5-4C47-AFB1-B1E0D00B73D5}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{0F35D6AC-EAA5-4C47-AFB1-B1E0D00B73D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Motor Driver PCB" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="3" r:id="rId1"/>
+    <sheet name="Motor Driver PCB" sheetId="1" r:id="rId2"/>
+    <sheet name="TMC2130 Based Board" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
   <si>
     <t>Part Function</t>
   </si>
@@ -469,23 +471,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -800,12 +803,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403CF8C6-6216-432B-9BFD-993D12977191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE6F057-F316-4522-8112-26277AB3FDC2}">
   <dimension ref="A4:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -816,11 +819,291 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
+      <c r="E4" s="7"/>
+      <c r="F4" s="5">
+        <f>SUM(F12:F998)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B48" s="4"/>
+      <c r="D48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D63" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A45:C45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403CF8C6-6216-432B-9BFD-993D12977191}">
+  <dimension ref="A4:G63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="2" width="24.64453125" customWidth="1"/>
+    <col min="3" max="3" width="60.64453125" customWidth="1"/>
+    <col min="7" max="7" width="80.64453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5">
         <f>SUM(F12:F998)</f>
         <v>102.19999999999999</v>
       </c>
@@ -849,11 +1132,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
@@ -991,11 +1274,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
@@ -1112,11 +1395,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
@@ -1330,11 +1613,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="2"/>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
@@ -1452,11 +1735,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="2"/>
       <c r="F45" s="2">
         <f t="shared" si="0"/>
@@ -1467,7 +1750,7 @@
       <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>470533000</v>
       </c>
       <c r="C46" t="s">
@@ -1515,7 +1798,7 @@
       <c r="A48" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C48" t="s">
@@ -1727,4 +2010,284 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7104F1AB-DCA5-4E96-9FFF-85451A356696}">
+  <dimension ref="A4:G63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="2" width="24.64453125" customWidth="1"/>
+    <col min="3" max="3" width="60.64453125" customWidth="1"/>
+    <col min="7" max="7" width="80.64453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5">
+        <f>SUM(F12:F998)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B48" s="4"/>
+      <c r="D48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D63" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A45:C45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>